--- a/biology/Botanique/Berberis_×stenophylla/Berberis_×stenophylla.xlsx
+++ b/biology/Botanique/Berberis_×stenophylla/Berberis_×stenophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berberis_%C3%97stenophylla</t>
+          <t>Berberis_×stenophylla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berbéris à feuilles étroites, Épine-vinette à feuilles étroites
 Le berbéris à feuilles étroites ou épine-vinette à feuilles étroites (Berberis ×stenophylla) est un arbuste de la famille des Berbéridacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berberis_%C3%97stenophylla</t>
+          <t>Berberis_×stenophylla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste pouvant atteindre 3 m de haut aux très courtes épines trifurquées - 1 à 3 mm de long -.
 Ses feuilles sont lancéolées, semi-persistantes, d'un vert soutenu, petites et très étroites : 1 à 3 cm de long pour 0,5 cm de large. Le feuillage vire un peu au pourpre en hiver. Ces feuilles sont à l'origine de l'épithète spécifique.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Berberis_%C3%97stenophylla</t>
+          <t>Berberis_×stenophylla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un hybride, uniquement cultivé et ancienne obtention anglaise, issu de Berberis darwinii Hook. et de Berberis empetrifolia Lam., deux espèces sud-américaines (Chili et Argentine).
 Il existe un homonyme (non hybride) : Berberis stenophylla Hance (1982) renommé Berberis soulieana C.K. Schneid. 
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Berberis_%C3%97stenophylla</t>
+          <t>Berberis_×stenophylla</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est maintenant largement répandue dans l'ensemble des pays à climat tempéré.
 </t>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Berberis_%C3%97stenophylla</t>
+          <t>Berberis_×stenophylla</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Son utilisation est purement ornementale et en plante de haies. De nombreuses variétés horticoles, souvent de tailles plus réduites, ont été obtenues et dont les plus connues sont les suivantes :
 Berberis × stenophylla 'Corallina'
